--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/Metodos_de_planifcacion_familiar_2018_al_2022.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/Metodos_de_planifcacion_familiar_2018_al_2022.xlsx
@@ -5,22 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgalvez\OneDrive - ine.gob.gt\Documentos\GitHub\CompendioGenero2023\Codigo\Bases\datos_administrativos\Indicadores_de_Género\SALUD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42DDF9A-9643-41C9-9E3A-D40294A0E0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{A42DDF9A-9643-41C9-9E3A-D40294A0E0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DAE9B69-DF96-4E1C-B973-6ECB348415A2}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios nuevos" sheetId="3" r:id="rId1"/>
     <sheet name="Usuarios reconsultas" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId3"/>
+    <sheet name="Sugerencia1" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Usuarios nuevos'!$A$5:$D$234</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Usuarios reconsultas'!$A$7:$P$234</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="23" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="68">
   <si>
     <t>Collar del Ciclo</t>
   </si>
@@ -212,6 +217,33 @@
   </si>
   <si>
     <t>Masculino</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primera consulta </t>
+  </si>
+  <si>
+    <t>Reconsulta</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Suma de Reconsulta</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>Total Suma de Reconsulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Suma de Primera consulta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma de Primera consulta </t>
   </si>
 </sst>
 </file>
@@ -543,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -672,9 +704,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -784,6 +818,1465 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Unidad Genero" refreshedDate="45072.638848726849" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="220" xr:uid="{9123B0E6-9825-4CCC-9EE0-BCDB911C029D}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D221" sheet="Hoja2"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Año" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2018" maxValue="2022" count="5">
+        <n v="2018"/>
+        <n v="2019"/>
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sexo" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Femenino"/>
+        <s v="Masculino"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Primera consulta " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="92" maxValue="69213"/>
+    </cacheField>
+    <cacheField name="Reconsulta" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="107601"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="220">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="57132"/>
+    <n v="97407"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="906"/>
+    <n v="414"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15861"/>
+    <n v="25609"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="285"/>
+    <n v="152"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17984"/>
+    <n v="38794"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="246"/>
+    <n v="234"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23907"/>
+    <n v="34524"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="687"/>
+    <n v="364"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="40314"/>
+    <n v="76890"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1179"/>
+    <n v="514"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6754"/>
+    <n v="12450"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="268"/>
+    <n v="117"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32714"/>
+    <n v="83025"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="614"/>
+    <n v="586"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="49703"/>
+    <n v="95406"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1443"/>
+    <n v="849"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="68357"/>
+    <n v="74579"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1450"/>
+    <n v="733"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13178"/>
+    <n v="17477"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="381"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11160"/>
+    <n v="31813"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="179"/>
+    <n v="282"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17633"/>
+    <n v="49864"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="649"/>
+    <n v="473"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="36305"/>
+    <n v="52327"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1326"/>
+    <n v="516"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="37031"/>
+    <n v="61225"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1044"/>
+    <n v="736"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12051"/>
+    <n v="25951"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="342"/>
+    <n v="136"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5907"/>
+    <n v="21478"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="92"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="54664"/>
+    <n v="87665"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1218"/>
+    <n v="580"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18853"/>
+    <n v="27371"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="498"/>
+    <n v="183"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12695"/>
+    <n v="30400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="501"/>
+    <n v="426"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14951"/>
+    <n v="59106"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="196"/>
+    <n v="172"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16401"/>
+    <n v="24257"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="282"/>
+    <n v="173"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11882"/>
+    <n v="13400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="346"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="58513"/>
+    <n v="105562"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1104"/>
+    <n v="555"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12710"/>
+    <n v="30473"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="239"/>
+    <n v="157"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="18296"/>
+    <n v="40831"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="426"/>
+    <n v="316"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="23232"/>
+    <n v="36119"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="767"/>
+    <n v="434"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="38319"/>
+    <n v="70269"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1620"/>
+    <n v="583"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5862"/>
+    <n v="14151"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="321"/>
+    <n v="133"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="29314"/>
+    <n v="77432"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="716"/>
+    <n v="591"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="46438"/>
+    <n v="92139"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1639"/>
+    <n v="1309"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="69213"/>
+    <n v="69226"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1670"/>
+    <n v="808"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="11705"/>
+    <n v="19307"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="263"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="9617"/>
+    <n v="30306"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="226"/>
+    <n v="247"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="15666"/>
+    <n v="49355"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="694"/>
+    <n v="557"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="34021"/>
+    <n v="56925"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1313"/>
+    <n v="723"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="39685"/>
+    <n v="61209"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1264"/>
+    <n v="931"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12573"/>
+    <n v="24575"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="392"/>
+    <n v="128"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="6365"/>
+    <n v="21151"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="108"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="58712"/>
+    <n v="88692"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2184"/>
+    <n v="927"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="18901"/>
+    <n v="31020"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="506"/>
+    <n v="172"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="13521"/>
+    <n v="29709"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="513"/>
+    <n v="473"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="15297"/>
+    <n v="54800"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="212"/>
+    <n v="199"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="16366"/>
+    <n v="25685"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="352"/>
+    <n v="198"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12771"/>
+    <n v="13945"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="388"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="53794"/>
+    <n v="107601"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1153"/>
+    <n v="621"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="12304"/>
+    <n v="28468"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="185"/>
+    <n v="141"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="18031"/>
+    <n v="39908"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="367"/>
+    <n v="289"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="24483"/>
+    <n v="35214"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="662"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="35868"/>
+    <n v="65730"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1387"/>
+    <n v="551"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5994"/>
+    <n v="12384"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="273"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="24511"/>
+    <n v="70139"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="567"/>
+    <n v="518"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="41148"/>
+    <n v="71066"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2044"/>
+    <n v="1659"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="66275"/>
+    <n v="71531"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1506"/>
+    <n v="822"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8630"/>
+    <n v="11950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="180"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="9321"/>
+    <n v="29453"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="224"/>
+    <n v="279"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15392"/>
+    <n v="49795"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="582"/>
+    <n v="537"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="33477"/>
+    <n v="46945"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="915"/>
+    <n v="647"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="40506"/>
+    <n v="64644"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1296"/>
+    <n v="1149"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="11164"/>
+    <n v="24090"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="314"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="6231"/>
+    <n v="17718"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="53988"/>
+    <n v="84803"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1952"/>
+    <n v="912"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="18952"/>
+    <n v="31630"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="550"/>
+    <n v="158"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="13384"/>
+    <n v="28758"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="461"/>
+    <n v="444"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="12787"/>
+    <n v="44534"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="167"/>
+    <n v="139"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15930"/>
+    <n v="21679"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="399"/>
+    <n v="235"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="12169"/>
+    <n v="12886"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="397"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="52229"/>
+    <n v="100811"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1227"/>
+    <n v="687"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="11403"/>
+    <n v="20368"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="165"/>
+    <n v="136"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="17484"/>
+    <n v="31686"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="311"/>
+    <n v="284"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="21862"/>
+    <n v="31010"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="510"/>
+    <n v="351"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="34326"/>
+    <n v="50951"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1249"/>
+    <n v="456"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="5824"/>
+    <n v="9545"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="306"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="26197"/>
+    <n v="56952"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="801"/>
+    <n v="642"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="38974"/>
+    <n v="59888"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4635"/>
+    <n v="2843"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="67297"/>
+    <n v="60091"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1405"/>
+    <n v="721"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="9624"/>
+    <n v="9000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="162"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="9039"/>
+    <n v="24691"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="124"/>
+    <n v="232"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="13615"/>
+    <n v="40157"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="538"/>
+    <n v="457"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="31329"/>
+    <n v="39233"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="917"/>
+    <n v="537"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="38559"/>
+    <n v="58190"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1222"/>
+    <n v="1034"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="10774"/>
+    <n v="19268"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="316"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="6783"/>
+    <n v="14236"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="218"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="46125"/>
+    <n v="70825"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1533"/>
+    <n v="695"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="18422"/>
+    <n v="20371"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="555"/>
+    <n v="124"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="14500"/>
+    <n v="24323"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="434"/>
+    <n v="411"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="11713"/>
+    <n v="34668"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="148"/>
+    <n v="116"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="17437"/>
+    <n v="19743"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="403"/>
+    <n v="168"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="11592"/>
+    <n v="8703"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="355"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="54181"/>
+    <n v="59739"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1514"/>
+    <n v="670"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="11041"/>
+    <n v="16506"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="196"/>
+    <n v="124"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="23833"/>
+    <n v="25382"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="387"/>
+    <n v="268"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="22772"/>
+    <n v="26173"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="542"/>
+    <n v="299"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="38208"/>
+    <n v="41340"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1248"/>
+    <n v="343"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="8575"/>
+    <n v="8235"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="191"/>
+    <n v="121"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="36766"/>
+    <n v="44284"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="822"/>
+    <n v="457"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="36593"/>
+    <n v="63685"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="2889"/>
+    <n v="3964"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="59318"/>
+    <n v="38504"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1242"/>
+    <n v="579"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="8496"/>
+    <n v="7550"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="129"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="9740"/>
+    <n v="14548"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="208"/>
+    <n v="275"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="12590"/>
+    <n v="30208"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="559"/>
+    <n v="445"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="30116"/>
+    <n v="33682"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1022"/>
+    <n v="516"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="42990"/>
+    <n v="48151"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1287"/>
+    <n v="1002"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="12523"/>
+    <n v="17947"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="230"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="8709"/>
+    <n v="9242"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="284"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="37262"/>
+    <n v="35022"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1139"/>
+    <n v="503"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="18843"/>
+    <n v="16848"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="338"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="11648"/>
+    <n v="14376"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="359"/>
+    <n v="264"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="16107"/>
+    <n v="24814"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="173"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="18228"/>
+    <n v="18471"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="479"/>
+    <n v="195"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="12160"/>
+    <n v="10183"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="313"/>
+    <n v="65"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EE1AF17-E415-4CA3-AE05-40A2D6C10672}" name="Tabla dinámica1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A2:G10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Suma de Reconsulta" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Primera consulta " fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1051,11 +2544,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5B7946-617B-4F9C-86D1-B6DA150339A0}">
   <dimension ref="A1:R234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220:XFD221"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C227" activeCellId="1" sqref="A8:A227 C8:D227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="28" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="28" customWidth="1"/>
@@ -12355,10 +13848,10 @@
   <dimension ref="A1:P234"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="D8" sqref="D8:D227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="5" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="5" customWidth="1"/>
@@ -23653,10 +25146,3320 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EC2645-5B73-4B2A-AC76-E50179E27370}">
+  <dimension ref="A1:D221"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D221"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>57132</v>
+      </c>
+      <c r="D2">
+        <v>97407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>906</v>
+      </c>
+      <c r="D3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>15861</v>
+      </c>
+      <c r="D4">
+        <v>25609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>285</v>
+      </c>
+      <c r="D5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>17984</v>
+      </c>
+      <c r="D6">
+        <v>38794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>246</v>
+      </c>
+      <c r="D7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>23907</v>
+      </c>
+      <c r="D8">
+        <v>34524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>687</v>
+      </c>
+      <c r="D9">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>40314</v>
+      </c>
+      <c r="D10">
+        <v>76890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2018</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>1179</v>
+      </c>
+      <c r="D11">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>6754</v>
+      </c>
+      <c r="D12">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>268</v>
+      </c>
+      <c r="D13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2018</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>32714</v>
+      </c>
+      <c r="D14">
+        <v>83025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2018</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>614</v>
+      </c>
+      <c r="D15">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2018</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>49703</v>
+      </c>
+      <c r="D16">
+        <v>95406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>1443</v>
+      </c>
+      <c r="D17">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2018</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>68357</v>
+      </c>
+      <c r="D18">
+        <v>74579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>1450</v>
+      </c>
+      <c r="D19">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <v>13178</v>
+      </c>
+      <c r="D20">
+        <v>17477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <v>381</v>
+      </c>
+      <c r="D21">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>11160</v>
+      </c>
+      <c r="D22">
+        <v>31813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2018</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23">
+        <v>179</v>
+      </c>
+      <c r="D23">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2018</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24">
+        <v>17633</v>
+      </c>
+      <c r="D24">
+        <v>49864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>649</v>
+      </c>
+      <c r="D25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2018</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>36305</v>
+      </c>
+      <c r="D26">
+        <v>52327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2018</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>1326</v>
+      </c>
+      <c r="D27">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2018</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>37031</v>
+      </c>
+      <c r="D28">
+        <v>61225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2018</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>1044</v>
+      </c>
+      <c r="D29">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2018</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>12051</v>
+      </c>
+      <c r="D30">
+        <v>25951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2018</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31">
+        <v>342</v>
+      </c>
+      <c r="D31">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2018</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>5907</v>
+      </c>
+      <c r="D32">
+        <v>21478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2018</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>92</v>
+      </c>
+      <c r="D33">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2018</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34">
+        <v>54664</v>
+      </c>
+      <c r="D34">
+        <v>87665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2018</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>1218</v>
+      </c>
+      <c r="D35">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2018</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36">
+        <v>18853</v>
+      </c>
+      <c r="D36">
+        <v>27371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2018</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>498</v>
+      </c>
+      <c r="D37">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2018</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>12695</v>
+      </c>
+      <c r="D38">
+        <v>30400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2018</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>501</v>
+      </c>
+      <c r="D39">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>14951</v>
+      </c>
+      <c r="D40">
+        <v>59106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2018</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41">
+        <v>196</v>
+      </c>
+      <c r="D41">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2018</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>16401</v>
+      </c>
+      <c r="D42">
+        <v>24257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2018</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <v>282</v>
+      </c>
+      <c r="D43">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2018</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>11882</v>
+      </c>
+      <c r="D44">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2018</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45">
+        <v>346</v>
+      </c>
+      <c r="D45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2019</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>58513</v>
+      </c>
+      <c r="D46">
+        <v>105562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2019</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47">
+        <v>1104</v>
+      </c>
+      <c r="D47">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2019</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>12710</v>
+      </c>
+      <c r="D48">
+        <v>30473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2019</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <v>239</v>
+      </c>
+      <c r="D49">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2019</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <v>18296</v>
+      </c>
+      <c r="D50">
+        <v>40831</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2019</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51">
+        <v>426</v>
+      </c>
+      <c r="D51">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2019</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>23232</v>
+      </c>
+      <c r="D52">
+        <v>36119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2019</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53">
+        <v>767</v>
+      </c>
+      <c r="D53">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2019</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>38319</v>
+      </c>
+      <c r="D54">
+        <v>70269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2019</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>1620</v>
+      </c>
+      <c r="D55">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2019</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>5862</v>
+      </c>
+      <c r="D56">
+        <v>14151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2019</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>321</v>
+      </c>
+      <c r="D57">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2019</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>29314</v>
+      </c>
+      <c r="D58">
+        <v>77432</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2019</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>716</v>
+      </c>
+      <c r="D59">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2019</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>46438</v>
+      </c>
+      <c r="D60">
+        <v>92139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2019</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61">
+        <v>1639</v>
+      </c>
+      <c r="D61">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2019</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62">
+        <v>69213</v>
+      </c>
+      <c r="D62">
+        <v>69226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2019</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63">
+        <v>1670</v>
+      </c>
+      <c r="D63">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2019</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64">
+        <v>11705</v>
+      </c>
+      <c r="D64">
+        <v>19307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2019</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65">
+        <v>263</v>
+      </c>
+      <c r="D65">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2019</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66">
+        <v>9617</v>
+      </c>
+      <c r="D66">
+        <v>30306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2019</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67">
+        <v>226</v>
+      </c>
+      <c r="D67">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2019</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68">
+        <v>15666</v>
+      </c>
+      <c r="D68">
+        <v>49355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2019</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69">
+        <v>694</v>
+      </c>
+      <c r="D69">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2019</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70">
+        <v>34021</v>
+      </c>
+      <c r="D70">
+        <v>56925</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2019</v>
+      </c>
+      <c r="B71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71">
+        <v>1313</v>
+      </c>
+      <c r="D71">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2019</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72">
+        <v>39685</v>
+      </c>
+      <c r="D72">
+        <v>61209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2019</v>
+      </c>
+      <c r="B73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73">
+        <v>1264</v>
+      </c>
+      <c r="D73">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2019</v>
+      </c>
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74">
+        <v>12573</v>
+      </c>
+      <c r="D74">
+        <v>24575</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2019</v>
+      </c>
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75">
+        <v>392</v>
+      </c>
+      <c r="D75">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2019</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76">
+        <v>6365</v>
+      </c>
+      <c r="D76">
+        <v>21151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2019</v>
+      </c>
+      <c r="B77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77">
+        <v>108</v>
+      </c>
+      <c r="D77">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2019</v>
+      </c>
+      <c r="B78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78">
+        <v>58712</v>
+      </c>
+      <c r="D78">
+        <v>88692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2019</v>
+      </c>
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79">
+        <v>2184</v>
+      </c>
+      <c r="D79">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2019</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80">
+        <v>18901</v>
+      </c>
+      <c r="D80">
+        <v>31020</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2019</v>
+      </c>
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81">
+        <v>506</v>
+      </c>
+      <c r="D81">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2019</v>
+      </c>
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82">
+        <v>13521</v>
+      </c>
+      <c r="D82">
+        <v>29709</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2019</v>
+      </c>
+      <c r="B83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83">
+        <v>513</v>
+      </c>
+      <c r="D83">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2019</v>
+      </c>
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84">
+        <v>15297</v>
+      </c>
+      <c r="D84">
+        <v>54800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2019</v>
+      </c>
+      <c r="B85" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85">
+        <v>212</v>
+      </c>
+      <c r="D85">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2019</v>
+      </c>
+      <c r="B86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86">
+        <v>16366</v>
+      </c>
+      <c r="D86">
+        <v>25685</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2019</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87">
+        <v>352</v>
+      </c>
+      <c r="D87">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2019</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88">
+        <v>12771</v>
+      </c>
+      <c r="D88">
+        <v>13945</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2019</v>
+      </c>
+      <c r="B89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89">
+        <v>388</v>
+      </c>
+      <c r="D89">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2020</v>
+      </c>
+      <c r="B90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90">
+        <v>53794</v>
+      </c>
+      <c r="D90">
+        <v>107601</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2020</v>
+      </c>
+      <c r="B91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91">
+        <v>1153</v>
+      </c>
+      <c r="D91">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2020</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92">
+        <v>12304</v>
+      </c>
+      <c r="D92">
+        <v>28468</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2020</v>
+      </c>
+      <c r="B93" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93">
+        <v>185</v>
+      </c>
+      <c r="D93">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2020</v>
+      </c>
+      <c r="B94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94">
+        <v>18031</v>
+      </c>
+      <c r="D94">
+        <v>39908</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2020</v>
+      </c>
+      <c r="B95" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95">
+        <v>367</v>
+      </c>
+      <c r="D95">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2020</v>
+      </c>
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96">
+        <v>24483</v>
+      </c>
+      <c r="D96">
+        <v>35214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2020</v>
+      </c>
+      <c r="B97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97">
+        <v>662</v>
+      </c>
+      <c r="D97">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2020</v>
+      </c>
+      <c r="B98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98">
+        <v>35868</v>
+      </c>
+      <c r="D98">
+        <v>65730</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2020</v>
+      </c>
+      <c r="B99" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99">
+        <v>1387</v>
+      </c>
+      <c r="D99">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2020</v>
+      </c>
+      <c r="B100" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100">
+        <v>5994</v>
+      </c>
+      <c r="D100">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2020</v>
+      </c>
+      <c r="B101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C101">
+        <v>273</v>
+      </c>
+      <c r="D101">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2020</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102">
+        <v>24511</v>
+      </c>
+      <c r="D102">
+        <v>70139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2020</v>
+      </c>
+      <c r="B103" t="s">
+        <v>58</v>
+      </c>
+      <c r="C103">
+        <v>567</v>
+      </c>
+      <c r="D103">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2020</v>
+      </c>
+      <c r="B104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104">
+        <v>41148</v>
+      </c>
+      <c r="D104">
+        <v>71066</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2020</v>
+      </c>
+      <c r="B105" t="s">
+        <v>58</v>
+      </c>
+      <c r="C105">
+        <v>2044</v>
+      </c>
+      <c r="D105">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2020</v>
+      </c>
+      <c r="B106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106">
+        <v>66275</v>
+      </c>
+      <c r="D106">
+        <v>71531</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2020</v>
+      </c>
+      <c r="B107" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107">
+        <v>1506</v>
+      </c>
+      <c r="D107">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2020</v>
+      </c>
+      <c r="B108" t="s">
+        <v>57</v>
+      </c>
+      <c r="C108">
+        <v>8630</v>
+      </c>
+      <c r="D108">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2020</v>
+      </c>
+      <c r="B109" t="s">
+        <v>58</v>
+      </c>
+      <c r="C109">
+        <v>180</v>
+      </c>
+      <c r="D109">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>2020</v>
+      </c>
+      <c r="B110" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110">
+        <v>9321</v>
+      </c>
+      <c r="D110">
+        <v>29453</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>2020</v>
+      </c>
+      <c r="B111" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111">
+        <v>224</v>
+      </c>
+      <c r="D111">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>2020</v>
+      </c>
+      <c r="B112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112">
+        <v>15392</v>
+      </c>
+      <c r="D112">
+        <v>49795</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>2020</v>
+      </c>
+      <c r="B113" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113">
+        <v>582</v>
+      </c>
+      <c r="D113">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>2020</v>
+      </c>
+      <c r="B114" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114">
+        <v>33477</v>
+      </c>
+      <c r="D114">
+        <v>46945</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>2020</v>
+      </c>
+      <c r="B115" t="s">
+        <v>58</v>
+      </c>
+      <c r="C115">
+        <v>915</v>
+      </c>
+      <c r="D115">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>2020</v>
+      </c>
+      <c r="B116" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116">
+        <v>40506</v>
+      </c>
+      <c r="D116">
+        <v>64644</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>2020</v>
+      </c>
+      <c r="B117" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117">
+        <v>1296</v>
+      </c>
+      <c r="D117">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>2020</v>
+      </c>
+      <c r="B118" t="s">
+        <v>57</v>
+      </c>
+      <c r="C118">
+        <v>11164</v>
+      </c>
+      <c r="D118">
+        <v>24090</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>2020</v>
+      </c>
+      <c r="B119" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119">
+        <v>314</v>
+      </c>
+      <c r="D119">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>2020</v>
+      </c>
+      <c r="B120" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120">
+        <v>6231</v>
+      </c>
+      <c r="D120">
+        <v>17718</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>2020</v>
+      </c>
+      <c r="B121" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121">
+        <v>98</v>
+      </c>
+      <c r="D121">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2020</v>
+      </c>
+      <c r="B122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122">
+        <v>53988</v>
+      </c>
+      <c r="D122">
+        <v>84803</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>2020</v>
+      </c>
+      <c r="B123" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123">
+        <v>1952</v>
+      </c>
+      <c r="D123">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2020</v>
+      </c>
+      <c r="B124" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124">
+        <v>18952</v>
+      </c>
+      <c r="D124">
+        <v>31630</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2020</v>
+      </c>
+      <c r="B125" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125">
+        <v>550</v>
+      </c>
+      <c r="D125">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2020</v>
+      </c>
+      <c r="B126" t="s">
+        <v>57</v>
+      </c>
+      <c r="C126">
+        <v>13384</v>
+      </c>
+      <c r="D126">
+        <v>28758</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2020</v>
+      </c>
+      <c r="B127" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127">
+        <v>461</v>
+      </c>
+      <c r="D127">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2020</v>
+      </c>
+      <c r="B128" t="s">
+        <v>57</v>
+      </c>
+      <c r="C128">
+        <v>12787</v>
+      </c>
+      <c r="D128">
+        <v>44534</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2020</v>
+      </c>
+      <c r="B129" t="s">
+        <v>58</v>
+      </c>
+      <c r="C129">
+        <v>167</v>
+      </c>
+      <c r="D129">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2020</v>
+      </c>
+      <c r="B130" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130">
+        <v>15930</v>
+      </c>
+      <c r="D130">
+        <v>21679</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2020</v>
+      </c>
+      <c r="B131" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131">
+        <v>399</v>
+      </c>
+      <c r="D131">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2020</v>
+      </c>
+      <c r="B132" t="s">
+        <v>57</v>
+      </c>
+      <c r="C132">
+        <v>12169</v>
+      </c>
+      <c r="D132">
+        <v>12886</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2020</v>
+      </c>
+      <c r="B133" t="s">
+        <v>58</v>
+      </c>
+      <c r="C133">
+        <v>397</v>
+      </c>
+      <c r="D133">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2021</v>
+      </c>
+      <c r="B134" t="s">
+        <v>57</v>
+      </c>
+      <c r="C134">
+        <v>52229</v>
+      </c>
+      <c r="D134">
+        <v>100811</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>2021</v>
+      </c>
+      <c r="B135" t="s">
+        <v>58</v>
+      </c>
+      <c r="C135">
+        <v>1227</v>
+      </c>
+      <c r="D135">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>2021</v>
+      </c>
+      <c r="B136" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136">
+        <v>11403</v>
+      </c>
+      <c r="D136">
+        <v>20368</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>2021</v>
+      </c>
+      <c r="B137" t="s">
+        <v>58</v>
+      </c>
+      <c r="C137">
+        <v>165</v>
+      </c>
+      <c r="D137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>2021</v>
+      </c>
+      <c r="B138" t="s">
+        <v>57</v>
+      </c>
+      <c r="C138">
+        <v>17484</v>
+      </c>
+      <c r="D138">
+        <v>31686</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2021</v>
+      </c>
+      <c r="B139" t="s">
+        <v>58</v>
+      </c>
+      <c r="C139">
+        <v>311</v>
+      </c>
+      <c r="D139">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2021</v>
+      </c>
+      <c r="B140" t="s">
+        <v>57</v>
+      </c>
+      <c r="C140">
+        <v>21862</v>
+      </c>
+      <c r="D140">
+        <v>31010</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2021</v>
+      </c>
+      <c r="B141" t="s">
+        <v>58</v>
+      </c>
+      <c r="C141">
+        <v>510</v>
+      </c>
+      <c r="D141">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>2021</v>
+      </c>
+      <c r="B142" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142">
+        <v>34326</v>
+      </c>
+      <c r="D142">
+        <v>50951</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>2021</v>
+      </c>
+      <c r="B143" t="s">
+        <v>58</v>
+      </c>
+      <c r="C143">
+        <v>1249</v>
+      </c>
+      <c r="D143">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2021</v>
+      </c>
+      <c r="B144" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144">
+        <v>5824</v>
+      </c>
+      <c r="D144">
+        <v>9545</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2021</v>
+      </c>
+      <c r="B145" t="s">
+        <v>58</v>
+      </c>
+      <c r="C145">
+        <v>306</v>
+      </c>
+      <c r="D145">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2021</v>
+      </c>
+      <c r="B146" t="s">
+        <v>57</v>
+      </c>
+      <c r="C146">
+        <v>26197</v>
+      </c>
+      <c r="D146">
+        <v>56952</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2021</v>
+      </c>
+      <c r="B147" t="s">
+        <v>58</v>
+      </c>
+      <c r="C147">
+        <v>801</v>
+      </c>
+      <c r="D147">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>2021</v>
+      </c>
+      <c r="B148" t="s">
+        <v>57</v>
+      </c>
+      <c r="C148">
+        <v>38974</v>
+      </c>
+      <c r="D148">
+        <v>59888</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>2021</v>
+      </c>
+      <c r="B149" t="s">
+        <v>58</v>
+      </c>
+      <c r="C149">
+        <v>4635</v>
+      </c>
+      <c r="D149">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>2021</v>
+      </c>
+      <c r="B150" t="s">
+        <v>57</v>
+      </c>
+      <c r="C150">
+        <v>67297</v>
+      </c>
+      <c r="D150">
+        <v>60091</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>2021</v>
+      </c>
+      <c r="B151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C151">
+        <v>1405</v>
+      </c>
+      <c r="D151">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>2021</v>
+      </c>
+      <c r="B152" t="s">
+        <v>57</v>
+      </c>
+      <c r="C152">
+        <v>9624</v>
+      </c>
+      <c r="D152">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>2021</v>
+      </c>
+      <c r="B153" t="s">
+        <v>58</v>
+      </c>
+      <c r="C153">
+        <v>162</v>
+      </c>
+      <c r="D153">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>2021</v>
+      </c>
+      <c r="B154" t="s">
+        <v>57</v>
+      </c>
+      <c r="C154">
+        <v>9039</v>
+      </c>
+      <c r="D154">
+        <v>24691</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2021</v>
+      </c>
+      <c r="B155" t="s">
+        <v>58</v>
+      </c>
+      <c r="C155">
+        <v>124</v>
+      </c>
+      <c r="D155">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>2021</v>
+      </c>
+      <c r="B156" t="s">
+        <v>57</v>
+      </c>
+      <c r="C156">
+        <v>13615</v>
+      </c>
+      <c r="D156">
+        <v>40157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>2021</v>
+      </c>
+      <c r="B157" t="s">
+        <v>58</v>
+      </c>
+      <c r="C157">
+        <v>538</v>
+      </c>
+      <c r="D157">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>2021</v>
+      </c>
+      <c r="B158" t="s">
+        <v>57</v>
+      </c>
+      <c r="C158">
+        <v>31329</v>
+      </c>
+      <c r="D158">
+        <v>39233</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>2021</v>
+      </c>
+      <c r="B159" t="s">
+        <v>58</v>
+      </c>
+      <c r="C159">
+        <v>917</v>
+      </c>
+      <c r="D159">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>2021</v>
+      </c>
+      <c r="B160" t="s">
+        <v>57</v>
+      </c>
+      <c r="C160">
+        <v>38559</v>
+      </c>
+      <c r="D160">
+        <v>58190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>2021</v>
+      </c>
+      <c r="B161" t="s">
+        <v>58</v>
+      </c>
+      <c r="C161">
+        <v>1222</v>
+      </c>
+      <c r="D161">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>2021</v>
+      </c>
+      <c r="B162" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162">
+        <v>10774</v>
+      </c>
+      <c r="D162">
+        <v>19268</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>2021</v>
+      </c>
+      <c r="B163" t="s">
+        <v>58</v>
+      </c>
+      <c r="C163">
+        <v>316</v>
+      </c>
+      <c r="D163">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>2021</v>
+      </c>
+      <c r="B164" t="s">
+        <v>57</v>
+      </c>
+      <c r="C164">
+        <v>6783</v>
+      </c>
+      <c r="D164">
+        <v>14236</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>2021</v>
+      </c>
+      <c r="B165" t="s">
+        <v>58</v>
+      </c>
+      <c r="C165">
+        <v>218</v>
+      </c>
+      <c r="D165">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>2021</v>
+      </c>
+      <c r="B166" t="s">
+        <v>57</v>
+      </c>
+      <c r="C166">
+        <v>46125</v>
+      </c>
+      <c r="D166">
+        <v>70825</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>2021</v>
+      </c>
+      <c r="B167" t="s">
+        <v>58</v>
+      </c>
+      <c r="C167">
+        <v>1533</v>
+      </c>
+      <c r="D167">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>2021</v>
+      </c>
+      <c r="B168" t="s">
+        <v>57</v>
+      </c>
+      <c r="C168">
+        <v>18422</v>
+      </c>
+      <c r="D168">
+        <v>20371</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>2021</v>
+      </c>
+      <c r="B169" t="s">
+        <v>58</v>
+      </c>
+      <c r="C169">
+        <v>555</v>
+      </c>
+      <c r="D169">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>2021</v>
+      </c>
+      <c r="B170" t="s">
+        <v>57</v>
+      </c>
+      <c r="C170">
+        <v>14500</v>
+      </c>
+      <c r="D170">
+        <v>24323</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>2021</v>
+      </c>
+      <c r="B171" t="s">
+        <v>58</v>
+      </c>
+      <c r="C171">
+        <v>434</v>
+      </c>
+      <c r="D171">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>2021</v>
+      </c>
+      <c r="B172" t="s">
+        <v>57</v>
+      </c>
+      <c r="C172">
+        <v>11713</v>
+      </c>
+      <c r="D172">
+        <v>34668</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>2021</v>
+      </c>
+      <c r="B173" t="s">
+        <v>58</v>
+      </c>
+      <c r="C173">
+        <v>148</v>
+      </c>
+      <c r="D173">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>2021</v>
+      </c>
+      <c r="B174" t="s">
+        <v>57</v>
+      </c>
+      <c r="C174">
+        <v>17437</v>
+      </c>
+      <c r="D174">
+        <v>19743</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>2021</v>
+      </c>
+      <c r="B175" t="s">
+        <v>58</v>
+      </c>
+      <c r="C175">
+        <v>403</v>
+      </c>
+      <c r="D175">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>2021</v>
+      </c>
+      <c r="B176" t="s">
+        <v>57</v>
+      </c>
+      <c r="C176">
+        <v>11592</v>
+      </c>
+      <c r="D176">
+        <v>8703</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>2021</v>
+      </c>
+      <c r="B177" t="s">
+        <v>58</v>
+      </c>
+      <c r="C177">
+        <v>355</v>
+      </c>
+      <c r="D177">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>2022</v>
+      </c>
+      <c r="B178" t="s">
+        <v>57</v>
+      </c>
+      <c r="C178">
+        <v>54181</v>
+      </c>
+      <c r="D178">
+        <v>59739</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>2022</v>
+      </c>
+      <c r="B179" t="s">
+        <v>58</v>
+      </c>
+      <c r="C179">
+        <v>1514</v>
+      </c>
+      <c r="D179">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>2022</v>
+      </c>
+      <c r="B180" t="s">
+        <v>57</v>
+      </c>
+      <c r="C180">
+        <v>11041</v>
+      </c>
+      <c r="D180">
+        <v>16506</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>2022</v>
+      </c>
+      <c r="B181" t="s">
+        <v>58</v>
+      </c>
+      <c r="C181">
+        <v>196</v>
+      </c>
+      <c r="D181">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>2022</v>
+      </c>
+      <c r="B182" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182">
+        <v>23833</v>
+      </c>
+      <c r="D182">
+        <v>25382</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>2022</v>
+      </c>
+      <c r="B183" t="s">
+        <v>58</v>
+      </c>
+      <c r="C183">
+        <v>387</v>
+      </c>
+      <c r="D183">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>2022</v>
+      </c>
+      <c r="B184" t="s">
+        <v>57</v>
+      </c>
+      <c r="C184">
+        <v>22772</v>
+      </c>
+      <c r="D184">
+        <v>26173</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>2022</v>
+      </c>
+      <c r="B185" t="s">
+        <v>58</v>
+      </c>
+      <c r="C185">
+        <v>542</v>
+      </c>
+      <c r="D185">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>2022</v>
+      </c>
+      <c r="B186" t="s">
+        <v>57</v>
+      </c>
+      <c r="C186">
+        <v>38208</v>
+      </c>
+      <c r="D186">
+        <v>41340</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>2022</v>
+      </c>
+      <c r="B187" t="s">
+        <v>58</v>
+      </c>
+      <c r="C187">
+        <v>1248</v>
+      </c>
+      <c r="D187">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>2022</v>
+      </c>
+      <c r="B188" t="s">
+        <v>57</v>
+      </c>
+      <c r="C188">
+        <v>8575</v>
+      </c>
+      <c r="D188">
+        <v>8235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>2022</v>
+      </c>
+      <c r="B189" t="s">
+        <v>58</v>
+      </c>
+      <c r="C189">
+        <v>191</v>
+      </c>
+      <c r="D189">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>2022</v>
+      </c>
+      <c r="B190" t="s">
+        <v>57</v>
+      </c>
+      <c r="C190">
+        <v>36766</v>
+      </c>
+      <c r="D190">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>2022</v>
+      </c>
+      <c r="B191" t="s">
+        <v>58</v>
+      </c>
+      <c r="C191">
+        <v>822</v>
+      </c>
+      <c r="D191">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>2022</v>
+      </c>
+      <c r="B192" t="s">
+        <v>57</v>
+      </c>
+      <c r="C192">
+        <v>36593</v>
+      </c>
+      <c r="D192">
+        <v>63685</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>2022</v>
+      </c>
+      <c r="B193" t="s">
+        <v>58</v>
+      </c>
+      <c r="C193">
+        <v>2889</v>
+      </c>
+      <c r="D193">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>2022</v>
+      </c>
+      <c r="B194" t="s">
+        <v>57</v>
+      </c>
+      <c r="C194">
+        <v>59318</v>
+      </c>
+      <c r="D194">
+        <v>38504</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>2022</v>
+      </c>
+      <c r="B195" t="s">
+        <v>58</v>
+      </c>
+      <c r="C195">
+        <v>1242</v>
+      </c>
+      <c r="D195">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>2022</v>
+      </c>
+      <c r="B196" t="s">
+        <v>57</v>
+      </c>
+      <c r="C196">
+        <v>8496</v>
+      </c>
+      <c r="D196">
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>2022</v>
+      </c>
+      <c r="B197" t="s">
+        <v>58</v>
+      </c>
+      <c r="C197">
+        <v>129</v>
+      </c>
+      <c r="D197">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>2022</v>
+      </c>
+      <c r="B198" t="s">
+        <v>57</v>
+      </c>
+      <c r="C198">
+        <v>9740</v>
+      </c>
+      <c r="D198">
+        <v>14548</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>2022</v>
+      </c>
+      <c r="B199" t="s">
+        <v>58</v>
+      </c>
+      <c r="C199">
+        <v>208</v>
+      </c>
+      <c r="D199">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>2022</v>
+      </c>
+      <c r="B200" t="s">
+        <v>57</v>
+      </c>
+      <c r="C200">
+        <v>12590</v>
+      </c>
+      <c r="D200">
+        <v>30208</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>2022</v>
+      </c>
+      <c r="B201" t="s">
+        <v>58</v>
+      </c>
+      <c r="C201">
+        <v>559</v>
+      </c>
+      <c r="D201">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>2022</v>
+      </c>
+      <c r="B202" t="s">
+        <v>57</v>
+      </c>
+      <c r="C202">
+        <v>30116</v>
+      </c>
+      <c r="D202">
+        <v>33682</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>2022</v>
+      </c>
+      <c r="B203" t="s">
+        <v>58</v>
+      </c>
+      <c r="C203">
+        <v>1022</v>
+      </c>
+      <c r="D203">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>2022</v>
+      </c>
+      <c r="B204" t="s">
+        <v>57</v>
+      </c>
+      <c r="C204">
+        <v>42990</v>
+      </c>
+      <c r="D204">
+        <v>48151</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>2022</v>
+      </c>
+      <c r="B205" t="s">
+        <v>58</v>
+      </c>
+      <c r="C205">
+        <v>1287</v>
+      </c>
+      <c r="D205">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>2022</v>
+      </c>
+      <c r="B206" t="s">
+        <v>57</v>
+      </c>
+      <c r="C206">
+        <v>12523</v>
+      </c>
+      <c r="D206">
+        <v>17947</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>2022</v>
+      </c>
+      <c r="B207" t="s">
+        <v>58</v>
+      </c>
+      <c r="C207">
+        <v>230</v>
+      </c>
+      <c r="D207">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>2022</v>
+      </c>
+      <c r="B208" t="s">
+        <v>57</v>
+      </c>
+      <c r="C208">
+        <v>8709</v>
+      </c>
+      <c r="D208">
+        <v>9242</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>2022</v>
+      </c>
+      <c r="B209" t="s">
+        <v>58</v>
+      </c>
+      <c r="C209">
+        <v>284</v>
+      </c>
+      <c r="D209">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>2022</v>
+      </c>
+      <c r="B210" t="s">
+        <v>57</v>
+      </c>
+      <c r="C210">
+        <v>37262</v>
+      </c>
+      <c r="D210">
+        <v>35022</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>2022</v>
+      </c>
+      <c r="B211" t="s">
+        <v>58</v>
+      </c>
+      <c r="C211">
+        <v>1139</v>
+      </c>
+      <c r="D211">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>2022</v>
+      </c>
+      <c r="B212" t="s">
+        <v>57</v>
+      </c>
+      <c r="C212">
+        <v>18843</v>
+      </c>
+      <c r="D212">
+        <v>16848</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>2022</v>
+      </c>
+      <c r="B213" t="s">
+        <v>58</v>
+      </c>
+      <c r="C213">
+        <v>338</v>
+      </c>
+      <c r="D213">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>2022</v>
+      </c>
+      <c r="B214" t="s">
+        <v>57</v>
+      </c>
+      <c r="C214">
+        <v>11648</v>
+      </c>
+      <c r="D214">
+        <v>14376</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>2022</v>
+      </c>
+      <c r="B215" t="s">
+        <v>58</v>
+      </c>
+      <c r="C215">
+        <v>359</v>
+      </c>
+      <c r="D215">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>2022</v>
+      </c>
+      <c r="B216" t="s">
+        <v>57</v>
+      </c>
+      <c r="C216">
+        <v>16107</v>
+      </c>
+      <c r="D216">
+        <v>24814</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>2022</v>
+      </c>
+      <c r="B217" t="s">
+        <v>58</v>
+      </c>
+      <c r="C217">
+        <v>173</v>
+      </c>
+      <c r="D217">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>2022</v>
+      </c>
+      <c r="B218" t="s">
+        <v>57</v>
+      </c>
+      <c r="C218">
+        <v>18228</v>
+      </c>
+      <c r="D218">
+        <v>18471</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>2022</v>
+      </c>
+      <c r="B219" t="s">
+        <v>58</v>
+      </c>
+      <c r="C219">
+        <v>479</v>
+      </c>
+      <c r="D219">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>2022</v>
+      </c>
+      <c r="B220" t="s">
+        <v>57</v>
+      </c>
+      <c r="C220">
+        <v>12160</v>
+      </c>
+      <c r="D220">
+        <v>10183</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>2022</v>
+      </c>
+      <c r="B221" t="s">
+        <v>58</v>
+      </c>
+      <c r="C221">
+        <v>313</v>
+      </c>
+      <c r="D221">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BFEB01-21DE-4D21-8D30-1E6E34A6C430}">
+  <dimension ref="A2:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="48">
+        <v>1041018</v>
+      </c>
+      <c r="C5" s="48">
+        <v>575437</v>
+      </c>
+      <c r="D5" s="48">
+        <v>7881</v>
+      </c>
+      <c r="E5" s="48">
+        <v>14132</v>
+      </c>
+      <c r="F5" s="48">
+        <v>1048899</v>
+      </c>
+      <c r="G5" s="48">
+        <v>589569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="48">
+        <v>1042881</v>
+      </c>
+      <c r="C6" s="48">
+        <v>567097</v>
+      </c>
+      <c r="D6" s="48">
+        <v>9698</v>
+      </c>
+      <c r="E6" s="48">
+        <v>16917</v>
+      </c>
+      <c r="F6" s="48">
+        <v>1052579</v>
+      </c>
+      <c r="G6" s="48">
+        <v>584014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="48">
+        <v>970926</v>
+      </c>
+      <c r="C7" s="48">
+        <v>534339</v>
+      </c>
+      <c r="D7" s="48">
+        <v>9903</v>
+      </c>
+      <c r="E7" s="48">
+        <v>15679</v>
+      </c>
+      <c r="F7" s="48">
+        <v>980829</v>
+      </c>
+      <c r="G7" s="48">
+        <v>550018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="48">
+        <v>804710</v>
+      </c>
+      <c r="C8" s="48">
+        <v>515108</v>
+      </c>
+      <c r="D8" s="48">
+        <v>10306</v>
+      </c>
+      <c r="E8" s="48">
+        <v>17534</v>
+      </c>
+      <c r="F8" s="48">
+        <v>815016</v>
+      </c>
+      <c r="G8" s="48">
+        <v>532642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="48">
+        <v>604890</v>
+      </c>
+      <c r="C9" s="48">
+        <v>530699</v>
+      </c>
+      <c r="D9" s="48">
+        <v>10426</v>
+      </c>
+      <c r="E9" s="48">
+        <v>15551</v>
+      </c>
+      <c r="F9" s="48">
+        <v>615316</v>
+      </c>
+      <c r="G9" s="48">
+        <v>546250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="48">
+        <v>4464425</v>
+      </c>
+      <c r="C10" s="48">
+        <v>2722680</v>
+      </c>
+      <c r="D10" s="48">
+        <v>48214</v>
+      </c>
+      <c r="E10" s="48">
+        <v>79813</v>
+      </c>
+      <c r="F10" s="48">
+        <v>4512639</v>
+      </c>
+      <c r="G10" s="48">
+        <v>2802493</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23863,27 +28666,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2DE1173-CDC9-4F33-8A66-A1A3E2686955}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA16F9C-0AE8-48AE-B540-1D3A617EBBB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5314bbde-1a6b-4194-9f77-bd3125665258"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="99250508-9833-4e2a-896a-6ac8dacc412b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -23908,9 +28699,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA16F9C-0AE8-48AE-B540-1D3A617EBBB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2DE1173-CDC9-4F33-8A66-A1A3E2686955}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5314bbde-1a6b-4194-9f77-bd3125665258"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="99250508-9833-4e2a-896a-6ac8dacc412b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/Metodos_de_planifcacion_familiar_2018_al_2022.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/Metodos_de_planifcacion_familiar_2018_al_2022.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{A42DDF9A-9643-41C9-9E3A-D40294A0E0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DAE9B69-DF96-4E1C-B973-6ECB348415A2}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="8_{A42DDF9A-9643-41C9-9E3A-D40294A0E0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE28D5FF-5609-4988-B05A-D7EEAD65CF10}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios nuevos" sheetId="3" r:id="rId1"/>
-    <sheet name="Usuarios reconsultas" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="6" r:id="rId3"/>
-    <sheet name="Sugerencia1" sheetId="7" r:id="rId4"/>
+    <sheet name="2022" sheetId="13" r:id="rId2"/>
+    <sheet name="Resumen_2022" sheetId="20" r:id="rId3"/>
+    <sheet name="Usuarios reconsultas" sheetId="2" r:id="rId4"/>
+    <sheet name="Metodos_total" sheetId="6" r:id="rId5"/>
+    <sheet name="Resumen_total" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Usuarios nuevos'!$A$5:$D$234</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Usuarios reconsultas'!$A$7:$P$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Usuarios reconsultas'!$A$7:$P$234</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="81">
   <si>
     <t>Collar del Ciclo</t>
   </si>
@@ -244,6 +247,45 @@
   </si>
   <si>
     <t xml:space="preserve">Suma de Primera consulta </t>
+  </si>
+  <si>
+    <t>Inyectable</t>
+  </si>
+  <si>
+    <t>DIU</t>
+  </si>
+  <si>
+    <t>Píldora</t>
+  </si>
+  <si>
+    <t>Barrera</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>Quirúrgico</t>
+  </si>
+  <si>
+    <t>Suma de Barrera</t>
+  </si>
+  <si>
+    <t>Suma de Inyectable</t>
+  </si>
+  <si>
+    <t>Suma de DIU</t>
+  </si>
+  <si>
+    <t>Suma de Píldora</t>
+  </si>
+  <si>
+    <t>Suma de Implante subdérmico</t>
+  </si>
+  <si>
+    <t>Suma de Natural</t>
+  </si>
+  <si>
+    <t>Suma de Quirúrgico</t>
   </si>
 </sst>
 </file>
@@ -671,6 +713,10 @@
     <xf numFmtId="49" fontId="12" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -704,8 +750,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -820,10 +864,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Unidad Genero" refreshedDate="45072.638848726849" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="220" xr:uid="{9123B0E6-9825-4CCC-9EE0-BCDB911C029D}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D221" sheet="Hoja2"/>
+    <worksheetSource ref="A1:D221" sheet="Metodos_total"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Año" numFmtId="0">
@@ -846,6 +894,48 @@
     </cacheField>
     <cacheField name="Reconsulta" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="107601"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Unidad Genero" refreshedDate="45075.394738657407" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="88" xr:uid="{47CA448E-A0FB-458F-8374-A30B7AAC4B8E}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H89" sheet="2022"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Sexo" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Femenino"/>
+        <s v="Masculino"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Inyectable" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="57096"/>
+    </cacheField>
+    <cacheField name="DIU" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="907"/>
+    </cacheField>
+    <cacheField name="Píldora" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3095"/>
+    </cacheField>
+    <cacheField name="Implante subdérmico" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6047"/>
+    </cacheField>
+    <cacheField name="Barrera" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="6822"/>
+    </cacheField>
+    <cacheField name="Natural" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5529"/>
+    </cacheField>
+    <cacheField name="Quirúrgico" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1177"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2181,8 +2271,982 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="88">
+  <r>
+    <x v="0"/>
+    <n v="40445"/>
+    <n v="559"/>
+    <n v="2541"/>
+    <n v="3635"/>
+    <n v="1748"/>
+    <n v="5177"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1511"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9005"/>
+    <n v="65"/>
+    <n v="662"/>
+    <n v="594"/>
+    <n v="539"/>
+    <n v="172"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="196"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="14313"/>
+    <n v="180"/>
+    <n v="2450"/>
+    <n v="875"/>
+    <n v="1209"/>
+    <n v="4802"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="387"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="15520"/>
+    <n v="57"/>
+    <n v="986"/>
+    <n v="756"/>
+    <n v="1091"/>
+    <n v="3585"/>
+    <n v="777"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="536"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="30552"/>
+    <n v="101"/>
+    <n v="1951"/>
+    <n v="1289"/>
+    <n v="1385"/>
+    <n v="2614"/>
+    <n v="316"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1246"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="6512"/>
+    <n v="92"/>
+    <n v="395"/>
+    <n v="602"/>
+    <n v="527"/>
+    <n v="78"/>
+    <n v="369"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="191"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="31579"/>
+    <n v="178"/>
+    <n v="1582"/>
+    <n v="1692"/>
+    <n v="887"/>
+    <n v="622"/>
+    <n v="226"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="798"/>
+    <n v="0"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="19337"/>
+    <n v="907"/>
+    <n v="1766"/>
+    <n v="6047"/>
+    <n v="5320"/>
+    <n v="3077"/>
+    <n v="139"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2810"/>
+    <n v="0"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="44512"/>
+    <n v="412"/>
+    <n v="3095"/>
+    <n v="2801"/>
+    <n v="1792"/>
+    <n v="5529"/>
+    <n v="1177"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1240"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="6579"/>
+    <n v="55"/>
+    <n v="768"/>
+    <n v="792"/>
+    <n v="295"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="129"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7034"/>
+    <n v="42"/>
+    <n v="1215"/>
+    <n v="548"/>
+    <n v="880"/>
+    <n v="4"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="208"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9822"/>
+    <n v="74"/>
+    <n v="359"/>
+    <n v="816"/>
+    <n v="1209"/>
+    <n v="106"/>
+    <n v="204"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="550"/>
+    <n v="0"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="22898"/>
+    <n v="448"/>
+    <n v="1743"/>
+    <n v="1289"/>
+    <n v="1677"/>
+    <n v="1802"/>
+    <n v="259"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="997"/>
+    <n v="0"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="31468"/>
+    <n v="473"/>
+    <n v="2846"/>
+    <n v="1976"/>
+    <n v="1380"/>
+    <n v="4576"/>
+    <n v="271"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1285"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="10748"/>
+    <n v="114"/>
+    <n v="865"/>
+    <n v="587"/>
+    <n v="205"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="230"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="6189"/>
+    <n v="160"/>
+    <n v="859"/>
+    <n v="423"/>
+    <n v="1075"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="284"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="32030"/>
+    <n v="201"/>
+    <n v="2816"/>
+    <n v="846"/>
+    <n v="1089"/>
+    <n v="215"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1139"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="12812"/>
+    <n v="130"/>
+    <n v="1407"/>
+    <n v="1551"/>
+    <n v="2315"/>
+    <n v="381"/>
+    <n v="247"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="337"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5969"/>
+    <n v="42"/>
+    <n v="604"/>
+    <n v="269"/>
+    <n v="399"/>
+    <n v="4365"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="359"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="13868"/>
+    <n v="149"/>
+    <n v="722"/>
+    <n v="915"/>
+    <n v="447"/>
+    <n v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="173"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="11529"/>
+    <n v="167"/>
+    <n v="1000"/>
+    <n v="691"/>
+    <n v="425"/>
+    <n v="4353"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="468"/>
+    <n v="0"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="10770"/>
+    <n v="39"/>
+    <n v="473"/>
+    <n v="283"/>
+    <n v="595"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="313"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="57096"/>
+    <n v="9"/>
+    <n v="1174"/>
+    <n v="190"/>
+    <n v="973"/>
+    <n v="280"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="670"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="15289"/>
+    <n v="11"/>
+    <n v="619"/>
+    <n v="107"/>
+    <n v="471"/>
+    <n v="5"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="124"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="22441"/>
+    <n v="0"/>
+    <n v="1757"/>
+    <n v="9"/>
+    <n v="1124"/>
+    <n v="48"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="268"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="22488"/>
+    <n v="1"/>
+    <n v="1219"/>
+    <n v="26"/>
+    <n v="768"/>
+    <n v="1671"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="299"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="38714"/>
+    <n v="2"/>
+    <n v="1573"/>
+    <n v="93"/>
+    <n v="808"/>
+    <n v="86"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="343"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7584"/>
+    <n v="4"/>
+    <n v="324"/>
+    <n v="16"/>
+    <n v="307"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="121"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="40143"/>
+    <n v="4"/>
+    <n v="2947"/>
+    <n v="126"/>
+    <n v="1010"/>
+    <n v="19"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="456"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="51891"/>
+    <n v="224"/>
+    <n v="2762"/>
+    <n v="1227"/>
+    <n v="6822"/>
+    <n v="758"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3964"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="35885"/>
+    <n v="7"/>
+    <n v="1516"/>
+    <n v="85"/>
+    <n v="667"/>
+    <n v="331"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="579"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="6775"/>
+    <n v="3"/>
+    <n v="565"/>
+    <n v="68"/>
+    <n v="139"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="11760"/>
+    <n v="4"/>
+    <n v="1554"/>
+    <n v="34"/>
+    <n v="1192"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="275"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="27987"/>
+    <n v="6"/>
+    <n v="648"/>
+    <n v="72"/>
+    <n v="1491"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="445"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="30627"/>
+    <n v="98"/>
+    <n v="1699"/>
+    <n v="238"/>
+    <n v="912"/>
+    <n v="107"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="516"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="45581"/>
+    <n v="12"/>
+    <n v="1327"/>
+    <n v="101"/>
+    <n v="1081"/>
+    <n v="34"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1002"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="16613"/>
+    <n v="17"/>
+    <n v="1125"/>
+    <n v="77"/>
+    <n v="115"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="57"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7318"/>
+    <n v="1"/>
+    <n v="1180"/>
+    <n v="7"/>
+    <n v="728"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="67"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="32385"/>
+    <n v="17"/>
+    <n v="1597"/>
+    <n v="114"/>
+    <n v="751"/>
+    <n v="19"/>
+    <n v="139"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="503"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="14920"/>
+    <n v="10"/>
+    <n v="995"/>
+    <n v="79"/>
+    <n v="840"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="102"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9659"/>
+    <n v="2"/>
+    <n v="565"/>
+    <n v="9"/>
+    <n v="395"/>
+    <n v="3746"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="264"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="23005"/>
+    <n v="15"/>
+    <n v="1027"/>
+    <n v="144"/>
+    <n v="623"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="85"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="17173"/>
+    <n v="7"/>
+    <n v="747"/>
+    <n v="36"/>
+    <n v="294"/>
+    <n v="213"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="194"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9657"/>
+    <n v="1"/>
+    <n v="225"/>
+    <n v="37"/>
+    <n v="262"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="65"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EE1AF17-E415-4CA3-AE05-40A2D6C10672}" name="Tabla dinámica1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{014E6B27-791E-4E76-9E12-964D08C4AAC8}" name="Tabla dinámica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A2:H5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+  </colItems>
+  <dataFields count="7">
+    <dataField name="Suma de Barrera" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Inyectable" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Suma de DIU" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Píldora" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Implante subdérmico" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Natural" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Quirúrgico" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EE1AF17-E415-4CA3-AE05-40A2D6C10672}" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:G10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -2544,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5B7946-617B-4F9C-86D1-B6DA150339A0}">
   <dimension ref="A1:R234"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C227" activeCellId="1" sqref="A8:A227 C8:D227"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2620,48 +3684,50 @@
       <c r="P4" s="24"/>
     </row>
     <row r="5" spans="1:18" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="37" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="37" t="s">
+      <c r="M5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="39"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="18" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="36" t="s">
         <v>46</v>
       </c>
@@ -13827,9 +14893,8 @@
       <c r="C234" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -13844,11 +14909,2469 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506F96EA-BC06-48CC-ADBC-A7F6807F7226}">
+  <dimension ref="A1:H89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>40445</v>
+      </c>
+      <c r="C2">
+        <v>559</v>
+      </c>
+      <c r="D2">
+        <v>2541</v>
+      </c>
+      <c r="E2">
+        <v>3635</v>
+      </c>
+      <c r="F2">
+        <v>1748</v>
+      </c>
+      <c r="G2">
+        <v>5177</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1511</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>9005</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>662</v>
+      </c>
+      <c r="E4">
+        <v>594</v>
+      </c>
+      <c r="F4">
+        <v>539</v>
+      </c>
+      <c r="G4">
+        <v>172</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>196</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>14313</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>2450</v>
+      </c>
+      <c r="E6">
+        <v>875</v>
+      </c>
+      <c r="F6">
+        <v>1209</v>
+      </c>
+      <c r="G6">
+        <v>4802</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>387</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>15520</v>
+      </c>
+      <c r="C8">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>986</v>
+      </c>
+      <c r="E8">
+        <v>756</v>
+      </c>
+      <c r="F8">
+        <v>1091</v>
+      </c>
+      <c r="G8">
+        <v>3585</v>
+      </c>
+      <c r="H8">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>536</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>30552</v>
+      </c>
+      <c r="C10">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>1951</v>
+      </c>
+      <c r="E10">
+        <v>1289</v>
+      </c>
+      <c r="F10">
+        <v>1385</v>
+      </c>
+      <c r="G10">
+        <v>2614</v>
+      </c>
+      <c r="H10">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1246</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12">
+        <v>6512</v>
+      </c>
+      <c r="C12">
+        <v>92</v>
+      </c>
+      <c r="D12">
+        <v>395</v>
+      </c>
+      <c r="E12">
+        <v>602</v>
+      </c>
+      <c r="F12">
+        <v>527</v>
+      </c>
+      <c r="G12">
+        <v>78</v>
+      </c>
+      <c r="H12">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>191</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>31579</v>
+      </c>
+      <c r="C14">
+        <v>178</v>
+      </c>
+      <c r="D14">
+        <v>1582</v>
+      </c>
+      <c r="E14">
+        <v>1692</v>
+      </c>
+      <c r="F14">
+        <v>887</v>
+      </c>
+      <c r="G14">
+        <v>622</v>
+      </c>
+      <c r="H14">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>798</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>19337</v>
+      </c>
+      <c r="C16">
+        <v>907</v>
+      </c>
+      <c r="D16">
+        <v>1766</v>
+      </c>
+      <c r="E16">
+        <v>6047</v>
+      </c>
+      <c r="F16">
+        <v>5320</v>
+      </c>
+      <c r="G16">
+        <v>3077</v>
+      </c>
+      <c r="H16">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2810</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>44512</v>
+      </c>
+      <c r="C18">
+        <v>412</v>
+      </c>
+      <c r="D18">
+        <v>3095</v>
+      </c>
+      <c r="E18">
+        <v>2801</v>
+      </c>
+      <c r="F18">
+        <v>1792</v>
+      </c>
+      <c r="G18">
+        <v>5529</v>
+      </c>
+      <c r="H18">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1240</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>6579</v>
+      </c>
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>768</v>
+      </c>
+      <c r="E20">
+        <v>792</v>
+      </c>
+      <c r="F20">
+        <v>295</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>129</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>7034</v>
+      </c>
+      <c r="C22">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <v>1215</v>
+      </c>
+      <c r="E22">
+        <v>548</v>
+      </c>
+      <c r="F22">
+        <v>880</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>208</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>9822</v>
+      </c>
+      <c r="C24">
+        <v>74</v>
+      </c>
+      <c r="D24">
+        <v>359</v>
+      </c>
+      <c r="E24">
+        <v>816</v>
+      </c>
+      <c r="F24">
+        <v>1209</v>
+      </c>
+      <c r="G24">
+        <v>106</v>
+      </c>
+      <c r="H24">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>550</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>22898</v>
+      </c>
+      <c r="C26">
+        <v>448</v>
+      </c>
+      <c r="D26">
+        <v>1743</v>
+      </c>
+      <c r="E26">
+        <v>1289</v>
+      </c>
+      <c r="F26">
+        <v>1677</v>
+      </c>
+      <c r="G26">
+        <v>1802</v>
+      </c>
+      <c r="H26">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>997</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <v>31468</v>
+      </c>
+      <c r="C28">
+        <v>473</v>
+      </c>
+      <c r="D28">
+        <v>2846</v>
+      </c>
+      <c r="E28">
+        <v>1976</v>
+      </c>
+      <c r="F28">
+        <v>1380</v>
+      </c>
+      <c r="G28">
+        <v>4576</v>
+      </c>
+      <c r="H28">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1285</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>10748</v>
+      </c>
+      <c r="C30">
+        <v>114</v>
+      </c>
+      <c r="D30">
+        <v>865</v>
+      </c>
+      <c r="E30">
+        <v>587</v>
+      </c>
+      <c r="F30">
+        <v>205</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>230</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>6189</v>
+      </c>
+      <c r="C32">
+        <v>160</v>
+      </c>
+      <c r="D32">
+        <v>859</v>
+      </c>
+      <c r="E32">
+        <v>423</v>
+      </c>
+      <c r="F32">
+        <v>1075</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>284</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>32030</v>
+      </c>
+      <c r="C34">
+        <v>201</v>
+      </c>
+      <c r="D34">
+        <v>2816</v>
+      </c>
+      <c r="E34">
+        <v>846</v>
+      </c>
+      <c r="F34">
+        <v>1089</v>
+      </c>
+      <c r="G34">
+        <v>215</v>
+      </c>
+      <c r="H34">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1139</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>12812</v>
+      </c>
+      <c r="C36">
+        <v>130</v>
+      </c>
+      <c r="D36">
+        <v>1407</v>
+      </c>
+      <c r="E36">
+        <v>1551</v>
+      </c>
+      <c r="F36">
+        <v>2315</v>
+      </c>
+      <c r="G36">
+        <v>381</v>
+      </c>
+      <c r="H36">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>337</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>5969</v>
+      </c>
+      <c r="C38">
+        <v>42</v>
+      </c>
+      <c r="D38">
+        <v>604</v>
+      </c>
+      <c r="E38">
+        <v>269</v>
+      </c>
+      <c r="F38">
+        <v>399</v>
+      </c>
+      <c r="G38">
+        <v>4365</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>359</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40">
+        <v>13868</v>
+      </c>
+      <c r="C40">
+        <v>149</v>
+      </c>
+      <c r="D40">
+        <v>722</v>
+      </c>
+      <c r="E40">
+        <v>915</v>
+      </c>
+      <c r="F40">
+        <v>447</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>173</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>11529</v>
+      </c>
+      <c r="C42">
+        <v>167</v>
+      </c>
+      <c r="D42">
+        <v>1000</v>
+      </c>
+      <c r="E42">
+        <v>691</v>
+      </c>
+      <c r="F42">
+        <v>425</v>
+      </c>
+      <c r="G42">
+        <v>4353</v>
+      </c>
+      <c r="H42">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>468</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>10770</v>
+      </c>
+      <c r="C44">
+        <v>39</v>
+      </c>
+      <c r="D44">
+        <v>473</v>
+      </c>
+      <c r="E44">
+        <v>283</v>
+      </c>
+      <c r="F44">
+        <v>595</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>313</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>57096</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>1174</v>
+      </c>
+      <c r="E46">
+        <v>190</v>
+      </c>
+      <c r="F46">
+        <v>973</v>
+      </c>
+      <c r="G46">
+        <v>280</v>
+      </c>
+      <c r="H46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>670</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>15289</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>619</v>
+      </c>
+      <c r="E48">
+        <v>107</v>
+      </c>
+      <c r="F48">
+        <v>471</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>124</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>22441</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1757</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>1124</v>
+      </c>
+      <c r="G50">
+        <v>48</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>268</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>22488</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1219</v>
+      </c>
+      <c r="E52">
+        <v>26</v>
+      </c>
+      <c r="F52">
+        <v>768</v>
+      </c>
+      <c r="G52">
+        <v>1671</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>299</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>38714</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>1573</v>
+      </c>
+      <c r="E54">
+        <v>93</v>
+      </c>
+      <c r="F54">
+        <v>808</v>
+      </c>
+      <c r="G54">
+        <v>86</v>
+      </c>
+      <c r="H54">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>343</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>7584</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>324</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>307</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>121</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>40143</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>2947</v>
+      </c>
+      <c r="E58">
+        <v>126</v>
+      </c>
+      <c r="F58">
+        <v>1010</v>
+      </c>
+      <c r="G58">
+        <v>19</v>
+      </c>
+      <c r="H58">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>456</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>51891</v>
+      </c>
+      <c r="C60">
+        <v>224</v>
+      </c>
+      <c r="D60">
+        <v>2762</v>
+      </c>
+      <c r="E60">
+        <v>1227</v>
+      </c>
+      <c r="F60">
+        <v>6822</v>
+      </c>
+      <c r="G60">
+        <v>758</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>3964</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62">
+        <v>35885</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>1516</v>
+      </c>
+      <c r="E62">
+        <v>85</v>
+      </c>
+      <c r="F62">
+        <v>667</v>
+      </c>
+      <c r="G62">
+        <v>331</v>
+      </c>
+      <c r="H62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>579</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64">
+        <v>6775</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>565</v>
+      </c>
+      <c r="E64">
+        <v>68</v>
+      </c>
+      <c r="F64">
+        <v>139</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>25</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66">
+        <v>11760</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>1554</v>
+      </c>
+      <c r="E66">
+        <v>34</v>
+      </c>
+      <c r="F66">
+        <v>1192</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>275</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68">
+        <v>27987</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>648</v>
+      </c>
+      <c r="E68">
+        <v>72</v>
+      </c>
+      <c r="F68">
+        <v>1491</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>445</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70">
+        <v>30627</v>
+      </c>
+      <c r="C70">
+        <v>98</v>
+      </c>
+      <c r="D70">
+        <v>1699</v>
+      </c>
+      <c r="E70">
+        <v>238</v>
+      </c>
+      <c r="F70">
+        <v>912</v>
+      </c>
+      <c r="G70">
+        <v>107</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>516</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72">
+        <v>45581</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>1327</v>
+      </c>
+      <c r="E72">
+        <v>101</v>
+      </c>
+      <c r="F72">
+        <v>1081</v>
+      </c>
+      <c r="G72">
+        <v>34</v>
+      </c>
+      <c r="H72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1002</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74">
+        <v>16613</v>
+      </c>
+      <c r="C74">
+        <v>17</v>
+      </c>
+      <c r="D74">
+        <v>1125</v>
+      </c>
+      <c r="E74">
+        <v>77</v>
+      </c>
+      <c r="F74">
+        <v>115</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>57</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76">
+        <v>7318</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1180</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>728</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>67</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78">
+        <v>32385</v>
+      </c>
+      <c r="C78">
+        <v>17</v>
+      </c>
+      <c r="D78">
+        <v>1597</v>
+      </c>
+      <c r="E78">
+        <v>114</v>
+      </c>
+      <c r="F78">
+        <v>751</v>
+      </c>
+      <c r="G78">
+        <v>19</v>
+      </c>
+      <c r="H78">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>503</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80">
+        <v>14920</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>995</v>
+      </c>
+      <c r="E80">
+        <v>79</v>
+      </c>
+      <c r="F80">
+        <v>840</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>102</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82">
+        <v>9659</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>565</v>
+      </c>
+      <c r="E82">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>395</v>
+      </c>
+      <c r="G82">
+        <v>3746</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>264</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84">
+        <v>23005</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="D84">
+        <v>1027</v>
+      </c>
+      <c r="E84">
+        <v>144</v>
+      </c>
+      <c r="F84">
+        <v>623</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>85</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86">
+        <v>17173</v>
+      </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>747</v>
+      </c>
+      <c r="E86">
+        <v>36</v>
+      </c>
+      <c r="F86">
+        <v>294</v>
+      </c>
+      <c r="G86">
+        <v>213</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>194</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88">
+        <v>9657</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>225</v>
+      </c>
+      <c r="E88">
+        <v>37</v>
+      </c>
+      <c r="F88">
+        <v>262</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>65</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A60F43-1CD6-4692-9037-64BDDAB690B7}">
+  <dimension ref="A2:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>48262</v>
+      </c>
+      <c r="C3">
+        <v>938482</v>
+      </c>
+      <c r="D3">
+        <v>5100</v>
+      </c>
+      <c r="E3">
+        <v>58250</v>
+      </c>
+      <c r="F3">
+        <v>32172</v>
+      </c>
+      <c r="G3">
+        <v>48796</v>
+      </c>
+      <c r="H3">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>25811</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>74073</v>
+      </c>
+      <c r="C5">
+        <v>938482</v>
+      </c>
+      <c r="D5">
+        <v>5100</v>
+      </c>
+      <c r="E5">
+        <v>58250</v>
+      </c>
+      <c r="F5">
+        <v>32172</v>
+      </c>
+      <c r="G5">
+        <v>48796</v>
+      </c>
+      <c r="H5">
+        <v>4693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P234"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D227"/>
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184:P227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13915,50 +17438,50 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
       <c r="L5" s="35" t="s">
         <v>45</v>
       </c>
       <c r="M5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="45"/>
+      <c r="O5" s="47"/>
       <c r="P5" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="35" t="s">
         <v>46</v>
       </c>
@@ -25146,7 +28669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EC2645-5B73-4B2A-AC76-E50179E27370}">
   <dimension ref="A1:D221"/>
   <sheetViews>
@@ -28255,12 +31778,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BFEB01-21DE-4D21-8D30-1E6E34A6C430}">
   <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28272,10 +31795,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="37" t="s">
         <v>64</v>
       </c>
     </row>
@@ -28294,7 +31817,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="37" t="s">
         <v>62</v>
       </c>
       <c r="B4" t="s">
@@ -28314,22 +31837,22 @@
       <c r="A5">
         <v>2018</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5">
         <v>1041018</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5">
         <v>575437</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5">
         <v>7881</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5">
         <v>14132</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5">
         <v>1048899</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5">
         <v>589569</v>
       </c>
     </row>
@@ -28337,22 +31860,22 @@
       <c r="A6">
         <v>2019</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6">
         <v>1042881</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6">
         <v>567097</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6">
         <v>9698</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6">
         <v>16917</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6">
         <v>1052579</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6">
         <v>584014</v>
       </c>
     </row>
@@ -28360,22 +31883,22 @@
       <c r="A7">
         <v>2020</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7">
         <v>970926</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7">
         <v>534339</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7">
         <v>9903</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7">
         <v>15679</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7">
         <v>980829</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7">
         <v>550018</v>
       </c>
     </row>
@@ -28383,22 +31906,22 @@
       <c r="A8">
         <v>2021</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8">
         <v>804710</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8">
         <v>515108</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8">
         <v>10306</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8">
         <v>17534</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8">
         <v>815016</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8">
         <v>532642</v>
       </c>
     </row>
@@ -28406,22 +31929,22 @@
       <c r="A9">
         <v>2022</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9">
         <v>604890</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9">
         <v>530699</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9">
         <v>10426</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9">
         <v>15551</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9">
         <v>615316</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9">
         <v>546250</v>
       </c>
     </row>
@@ -28429,22 +31952,22 @@
       <c r="A10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10">
         <v>4464425</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10">
         <v>2722680</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10">
         <v>48214</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10">
         <v>79813</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10">
         <v>4512639</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10">
         <v>2802493</v>
       </c>
     </row>
@@ -28454,12 +31977,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28666,15 +32186,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA16F9C-0AE8-48AE-B540-1D3A617EBBB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2DE1173-CDC9-4F33-8A66-A1A3E2686955}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5314bbde-1a6b-4194-9f77-bd3125665258"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="99250508-9833-4e2a-896a-6ac8dacc412b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28699,18 +32231,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2DE1173-CDC9-4F33-8A66-A1A3E2686955}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA16F9C-0AE8-48AE-B540-1D3A617EBBB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5314bbde-1a6b-4194-9f77-bd3125665258"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="99250508-9833-4e2a-896a-6ac8dacc412b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>